--- a/data/trans_orig/P64B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P64B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C61FA5E-D69F-44CA-A4BE-DDEE6DC7EDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E26986F-B434-47D8-9D56-48B87CE8066F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D282532E-D34A-4E50-B687-5E6D719B332F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B738E4F7-ADF7-4793-B659-7024FE325C59}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1170">
   <si>
     <t>Población según el tipo de jornada que tiene en su trabajo en 2007 (Tasa respuesta: 42,41%)</t>
   </si>
@@ -1405,7 +1405,148 @@
     <t>Población según el tipo de jornada que tiene en su trabajo en 2012 (Tasa respuesta: 33,39%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
   </si>
   <si>
     <t>3,96%</t>
@@ -1555,9 +1696,6 @@
     <t>10,99%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
     <t>6,99%</t>
   </si>
   <si>
@@ -1597,9 +1735,6 @@
     <t>5,23%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
     <t>10,05%</t>
   </si>
   <si>
@@ -1669,1617 +1804,1602 @@
     <t>41,13%</t>
   </si>
   <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de jornada que tiene en su trabajo en 2016 (Tasa respuesta: 33,78%)</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>23,5%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de jornada que tiene en su trabajo en 2016 (Tasa respuesta: 33,78%)</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
     <t>33,77%</t>
   </si>
   <si>
@@ -3332,9 +3452,6 @@
   </si>
   <si>
     <t>10,14%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
   </si>
   <si>
     <t>18,64%</t>
@@ -3842,7 +3959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE73C5C7-61EC-45E4-852B-D8242BFEB489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB43C7FB-8C0D-4323-A438-934C0B2A0162}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -7209,7 +7326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBAD2DD-83BA-4883-8392-A916F6492306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C9D4BF-0BCE-4565-9552-74530316588D}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7327,43 +7444,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2227</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>455</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>455</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11538</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N4" s="7">
+        <v>13765</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7372,43 +7495,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="7">
+        <v>24937</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I5" s="7">
+        <v>14506</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="N5" s="7">
+        <v>39444</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,43 +7546,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8435</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>455</v>
+        <v>337</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1014</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>455</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N6" s="7">
+        <v>9449</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,43 +7597,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3724</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>455</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4195</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>455</v>
+        <v>269</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="7">
+        <v>7919</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,43 +7648,49 @@
         <v>47</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D8" s="7">
+        <v>36758</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="I8" s="7">
+        <v>30219</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="N8" s="7">
+        <v>66977</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>455</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,43 +7699,49 @@
         <v>57</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="D9" s="7">
+        <v>49960</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I9" s="7">
+        <v>27075</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="N9" s="7">
+        <v>77035</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7597,43 +7750,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="D10" s="7">
+        <v>126041</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>455</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>455</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>455</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="I10" s="7">
+        <v>88548</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>455</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>455</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>455</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="N10" s="7">
+        <v>214589</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>455</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>455</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>455</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,13 +7809,13 @@
         <v>6896</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -7665,13 +7824,13 @@
         <v>9443</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -7680,13 +7839,13 @@
         <v>16340</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>187</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7860,13 @@
         <v>45450</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>464</v>
+        <v>511</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>465</v>
+        <v>512</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>466</v>
+        <v>513</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -7716,13 +7875,13 @@
         <v>18641</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>468</v>
+        <v>515</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>469</v>
+        <v>516</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -7734,10 +7893,10 @@
         <v>24</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>471</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,13 +7911,13 @@
         <v>7777</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>472</v>
+        <v>519</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>473</v>
+        <v>520</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>474</v>
+        <v>521</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7788,7 +7947,7 @@
         <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>475</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,13 +7962,13 @@
         <v>4079</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>477</v>
+        <v>524</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -7818,13 +7977,13 @@
         <v>4140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>478</v>
+        <v>525</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>479</v>
+        <v>526</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -7836,10 +7995,10 @@
         <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7854,13 +8013,13 @@
         <v>40210</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="H15" s="7">
         <v>40</v>
@@ -7869,13 +8028,13 @@
         <v>45219</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="M15" s="7">
         <v>78</v>
@@ -7884,13 +8043,13 @@
         <v>85429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>489</v>
+        <v>536</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>491</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,13 +8064,13 @@
         <v>69914</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>494</v>
+        <v>541</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -7920,13 +8079,13 @@
         <v>44252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>495</v>
+        <v>542</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>496</v>
+        <v>543</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -7935,13 +8094,13 @@
         <v>114166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>499</v>
+        <v>546</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>500</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8015,7 +8174,7 @@
         <v>174</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -8024,13 +8183,13 @@
         <v>3295</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>502</v>
+        <v>549</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>503</v>
+        <v>550</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>504</v>
+        <v>551</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -8042,10 +8201,10 @@
         <v>391</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8060,13 +8219,13 @@
         <v>33720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>417</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -8075,13 +8234,13 @@
         <v>6339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>510</v>
+        <v>556</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>511</v>
+        <v>557</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -8090,13 +8249,13 @@
         <v>40059</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>512</v>
+        <v>558</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>490</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8117,7 +8276,7 @@
         <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>514</v>
+        <v>560</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -8126,13 +8285,13 @@
         <v>1972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -8141,13 +8300,13 @@
         <v>4931</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>526</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8168,7 +8327,7 @@
         <v>34</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -8177,13 +8336,13 @@
         <v>8184</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>520</v>
+        <v>565</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>522</v>
+        <v>567</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -8195,10 +8354,10 @@
         <v>221</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>524</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,13 +8372,13 @@
         <v>43240</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -8228,13 +8387,13 @@
         <v>38360</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -8243,13 +8402,13 @@
         <v>81601</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>531</v>
+        <v>576</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>532</v>
+        <v>577</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>533</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8423,13 @@
         <v>54543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>534</v>
+        <v>579</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>535</v>
+        <v>580</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>536</v>
+        <v>581</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -8279,13 +8438,13 @@
         <v>23256</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>537</v>
+        <v>582</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>538</v>
+        <v>583</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>539</v>
+        <v>584</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -8294,13 +8453,13 @@
         <v>77799</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>540</v>
+        <v>585</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>541</v>
+        <v>586</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>542</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8362,49 +8521,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>14705</v>
+        <v>12478</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>543</v>
+        <v>588</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>544</v>
+        <v>589</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>545</v>
+        <v>590</v>
       </c>
       <c r="H25" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I25" s="7">
-        <v>24623</v>
+        <v>13086</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>182</v>
+        <v>591</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>474</v>
+        <v>592</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>546</v>
+        <v>593</v>
       </c>
       <c r="M25" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N25" s="7">
-        <v>39329</v>
+        <v>25564</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>547</v>
+        <v>594</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>548</v>
+        <v>191</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>549</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,49 +8572,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D26" s="7">
-        <v>51731</v>
+        <v>26794</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>550</v>
+        <v>596</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>551</v>
+        <v>597</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>552</v>
+        <v>598</v>
       </c>
       <c r="H26" s="7">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I26" s="7">
-        <v>35706</v>
+        <v>21200</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>553</v>
+        <v>599</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="M26" s="7">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="N26" s="7">
-        <v>87437</v>
+        <v>47994</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>557</v>
+        <v>603</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>558</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8464,49 +8623,49 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D27" s="7">
-        <v>11458</v>
+        <v>3024</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>268</v>
+        <v>605</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>559</v>
+        <v>606</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>560</v>
+        <v>607</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>1014</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>561</v>
+        <v>143</v>
       </c>
       <c r="M27" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N27" s="7">
-        <v>12472</v>
+        <v>3024</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>562</v>
+        <v>608</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>563</v>
+        <v>385</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>76</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8515,49 +8674,49 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4227</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4064</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M28" s="7">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
-        <v>7951</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="H28" s="7">
-        <v>8</v>
-      </c>
-      <c r="I28" s="7">
-        <v>8259</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="M28" s="7">
-        <v>15</v>
-      </c>
       <c r="N28" s="7">
-        <v>16210</v>
+        <v>8291</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>567</v>
+        <v>614</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>568</v>
+        <v>615</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>569</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8566,49 +8725,49 @@
         <v>47</v>
       </c>
       <c r="C29" s="7">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D29" s="7">
-        <v>75425</v>
+        <v>38668</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>570</v>
+        <v>617</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>571</v>
+        <v>618</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>572</v>
+        <v>619</v>
       </c>
       <c r="H29" s="7">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="I29" s="7">
-        <v>65963</v>
+        <v>35744</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>573</v>
+        <v>620</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>574</v>
+        <v>621</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>575</v>
+        <v>622</v>
       </c>
       <c r="M29" s="7">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="N29" s="7">
-        <v>141389</v>
+        <v>74411</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>577</v>
+        <v>624</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>578</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8617,49 +8776,49 @@
         <v>57</v>
       </c>
       <c r="C30" s="7">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="D30" s="7">
-        <v>102391</v>
+        <v>52431</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>579</v>
+        <v>626</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>580</v>
+        <v>627</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>581</v>
+        <v>628</v>
       </c>
       <c r="H30" s="7">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I30" s="7">
-        <v>52193</v>
+        <v>25118</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>582</v>
+        <v>629</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>583</v>
+        <v>630</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>584</v>
+        <v>631</v>
       </c>
       <c r="M30" s="7">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="N30" s="7">
-        <v>154584</v>
+        <v>77549</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>585</v>
+        <v>632</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>586</v>
+        <v>633</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>587</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8668,10 +8827,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="D31" s="7">
-        <v>263662</v>
+        <v>137621</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>67</v>
@@ -8683,10 +8842,10 @@
         <v>67</v>
       </c>
       <c r="H31" s="7">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="I31" s="7">
-        <v>187759</v>
+        <v>99211</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>67</v>
@@ -8698,10 +8857,10 @@
         <v>67</v>
       </c>
       <c r="M31" s="7">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="N31" s="7">
-        <v>451421</v>
+        <v>236832</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>67</v>
@@ -8727,13 +8886,13 @@
         <v>5987</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>588</v>
+        <v>635</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>317</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>589</v>
+        <v>636</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -8742,13 +8901,13 @@
         <v>6014</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>590</v>
+        <v>637</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>409</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>591</v>
+        <v>638</v>
       </c>
       <c r="M32" s="7">
         <v>11</v>
@@ -8757,13 +8916,13 @@
         <v>12001</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>592</v>
+        <v>639</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>594</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8778,10 +8937,10 @@
         <v>20755</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>595</v>
+        <v>642</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>596</v>
+        <v>643</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>257</v>
@@ -8793,13 +8952,13 @@
         <v>13319</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>597</v>
+        <v>644</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>598</v>
+        <v>645</v>
       </c>
       <c r="M33" s="7">
         <v>31</v>
@@ -8808,13 +8967,13 @@
         <v>34075</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>599</v>
+        <v>646</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>601</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8829,7 +8988,7 @@
         <v>923</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>602</v>
+        <v>649</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>34</v>
@@ -8850,7 +9009,7 @@
         <v>35</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>603</v>
+        <v>650</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -8865,7 +9024,7 @@
         <v>34</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>478</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8880,7 +9039,7 @@
         <v>1042</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>34</v>
@@ -8895,13 +9054,13 @@
         <v>1928</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -8910,10 +9069,10 @@
         <v>2971</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>607</v>
+        <v>653</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>608</v>
+        <v>654</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>103</v>
@@ -8931,13 +9090,13 @@
         <v>25282</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>609</v>
+        <v>655</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>610</v>
+        <v>656</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>611</v>
+        <v>657</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -8946,13 +9105,13 @@
         <v>24648</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>612</v>
+        <v>658</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>613</v>
+        <v>659</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>614</v>
+        <v>660</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -8961,13 +9120,13 @@
         <v>49930</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>617</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8982,13 +9141,13 @@
         <v>27521</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>618</v>
+        <v>663</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>469</v>
+        <v>516</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>619</v>
+        <v>664</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -8997,13 +9156,13 @@
         <v>10801</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>620</v>
+        <v>665</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>621</v>
+        <v>666</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="M37" s="7">
         <v>37</v>
@@ -9012,13 +9171,13 @@
         <v>38323</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>624</v>
+        <v>669</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>625</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9086,13 +9245,13 @@
         <v>6743</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>626</v>
+        <v>671</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>627</v>
+        <v>672</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -9101,13 +9260,13 @@
         <v>2041</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>628</v>
+        <v>673</v>
       </c>
       <c r="M39" s="7">
         <v>8</v>
@@ -9116,13 +9275,13 @@
         <v>8784</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>629</v>
+        <v>674</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>151</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>621</v>
+        <v>666</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9137,13 +9296,13 @@
         <v>26851</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>631</v>
+        <v>676</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>632</v>
+        <v>677</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -9152,13 +9311,13 @@
         <v>5826</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>633</v>
+        <v>678</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>635</v>
+        <v>680</v>
       </c>
       <c r="M40" s="7">
         <v>30</v>
@@ -9167,13 +9326,13 @@
         <v>32677</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>637</v>
+        <v>682</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>638</v>
+        <v>683</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9188,13 +9347,13 @@
         <v>2833</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>639</v>
+        <v>684</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -9203,13 +9362,13 @@
         <v>2239</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>502</v>
+        <v>549</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -9224,7 +9383,7 @@
         <v>380</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>641</v>
+        <v>686</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9245,7 +9404,7 @@
         <v>34</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -9254,13 +9413,13 @@
         <v>4921</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>603</v>
+        <v>650</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
@@ -9269,10 +9428,10 @@
         <v>5864</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>602</v>
+        <v>649</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>152</v>
@@ -9290,13 +9449,13 @@
         <v>34256</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
       <c r="H43" s="7">
         <v>23</v>
@@ -9305,13 +9464,13 @@
         <v>24352</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
       <c r="M43" s="7">
         <v>55</v>
@@ -9320,13 +9479,13 @@
         <v>58608</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>653</v>
+        <v>698</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9341,13 +9500,13 @@
         <v>45487</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>654</v>
+        <v>699</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>656</v>
+        <v>701</v>
       </c>
       <c r="H44" s="7">
         <v>15</v>
@@ -9356,13 +9515,13 @@
         <v>15913</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>657</v>
+        <v>702</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>346</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>658</v>
+        <v>703</v>
       </c>
       <c r="M44" s="7">
         <v>57</v>
@@ -9371,13 +9530,13 @@
         <v>61399</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>659</v>
+        <v>704</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>660</v>
+        <v>705</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>661</v>
+        <v>706</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9445,13 +9604,13 @@
         <v>23960</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>662</v>
+        <v>707</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>664</v>
+        <v>709</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
@@ -9460,13 +9619,13 @@
         <v>12750</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>666</v>
+        <v>711</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>667</v>
+        <v>712</v>
       </c>
       <c r="M46" s="7">
         <v>30</v>
@@ -9475,13 +9634,13 @@
         <v>36710</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>668</v>
+        <v>713</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>669</v>
+        <v>714</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>670</v>
+        <v>715</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9496,13 +9655,13 @@
         <v>70528</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>671</v>
+        <v>716</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>672</v>
+        <v>717</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>673</v>
+        <v>632</v>
       </c>
       <c r="H47" s="7">
         <v>20</v>
@@ -9511,28 +9670,28 @@
         <v>21538</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>674</v>
+        <v>718</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>675</v>
+        <v>719</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>676</v>
+        <v>720</v>
       </c>
       <c r="M47" s="7">
         <v>85</v>
       </c>
       <c r="N47" s="7">
-        <v>92065</v>
+        <v>92066</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>624</v>
+        <v>669</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>677</v>
+        <v>721</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>678</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9547,13 +9706,13 @@
         <v>8300</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>679</v>
+        <v>723</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>680</v>
+        <v>724</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -9562,13 +9721,13 @@
         <v>1135</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>681</v>
+        <v>725</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>682</v>
+        <v>726</v>
       </c>
       <c r="M48" s="7">
         <v>8</v>
@@ -9580,10 +9739,10 @@
         <v>425</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>683</v>
+        <v>727</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>684</v>
+        <v>728</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9598,13 +9757,13 @@
         <v>3735</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>685</v>
+        <v>729</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="H49" s="7">
         <v>22</v>
@@ -9613,13 +9772,13 @@
         <v>24992</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>686</v>
+        <v>730</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>687</v>
+        <v>731</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>688</v>
+        <v>732</v>
       </c>
       <c r="M49" s="7">
         <v>26</v>
@@ -9628,13 +9787,13 @@
         <v>28727</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>689</v>
+        <v>460</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>690</v>
+        <v>733</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>691</v>
+        <v>734</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9649,13 +9808,13 @@
         <v>57898</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>692</v>
+        <v>735</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>694</v>
+        <v>737</v>
       </c>
       <c r="H50" s="7">
         <v>56</v>
@@ -9664,13 +9823,13 @@
         <v>57793</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>695</v>
+        <v>738</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>696</v>
+        <v>739</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>697</v>
+        <v>740</v>
       </c>
       <c r="M50" s="7">
         <v>114</v>
@@ -9682,10 +9841,10 @@
         <v>111</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>698</v>
+        <v>741</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>699</v>
+        <v>742</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9700,13 +9859,13 @@
         <v>102383</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>700</v>
+        <v>743</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>701</v>
+        <v>744</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>702</v>
+        <v>745</v>
       </c>
       <c r="H51" s="7">
         <v>60</v>
@@ -9715,13 +9874,13 @@
         <v>62822</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>703</v>
+        <v>746</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>705</v>
+        <v>748</v>
       </c>
       <c r="M51" s="7">
         <v>156</v>
@@ -9730,13 +9889,13 @@
         <v>165205</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>706</v>
+        <v>749</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>707</v>
+        <v>750</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>708</v>
+        <v>751</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9778,7 +9937,7 @@
         <v>419</v>
       </c>
       <c r="N52" s="7">
-        <v>447834</v>
+        <v>447835</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>67</v>
@@ -9804,13 +9963,13 @@
         <v>14538</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>709</v>
+        <v>752</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>381</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="H53" s="7">
         <v>7</v>
@@ -9819,13 +9978,13 @@
         <v>8337</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>423</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>712</v>
+        <v>484</v>
       </c>
       <c r="M53" s="7">
         <v>21</v>
@@ -9834,13 +9993,13 @@
         <v>22875</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>713</v>
+        <v>755</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>388</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>477</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -9855,13 +10014,13 @@
         <v>83821</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>714</v>
+        <v>756</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>715</v>
+        <v>757</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>716</v>
+        <v>758</v>
       </c>
       <c r="H54" s="7">
         <v>44</v>
@@ -9870,13 +10029,13 @@
         <v>48255</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>717</v>
+        <v>759</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>718</v>
+        <v>760</v>
       </c>
       <c r="M54" s="7">
         <v>124</v>
@@ -9885,10 +10044,10 @@
         <v>132076</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>719</v>
+        <v>761</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="Q54" s="7" t="s">
         <v>80</v>
@@ -9906,13 +10065,13 @@
         <v>9978</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>561</v>
+        <v>763</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>94</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>543</v>
+        <v>764</v>
       </c>
       <c r="H55" s="7">
         <v>3</v>
@@ -9921,13 +10080,13 @@
         <v>4123</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>721</v>
+        <v>765</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>722</v>
+        <v>766</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>723</v>
+        <v>767</v>
       </c>
       <c r="M55" s="7">
         <v>11</v>
@@ -9936,13 +10095,13 @@
         <v>14101</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>724</v>
+        <v>768</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>269</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>725</v>
+        <v>769</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9957,13 +10116,13 @@
         <v>9458</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>726</v>
+        <v>770</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>727</v>
+        <v>612</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>728</v>
+        <v>771</v>
       </c>
       <c r="H56" s="7">
         <v>14</v>
@@ -9975,10 +10134,10 @@
         <v>406</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>729</v>
+        <v>772</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>730</v>
+        <v>773</v>
       </c>
       <c r="M56" s="7">
         <v>22</v>
@@ -9990,10 +10149,10 @@
         <v>18</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>731</v>
+        <v>774</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>732</v>
+        <v>775</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10008,13 +10167,13 @@
         <v>97235</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>733</v>
+        <v>776</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>734</v>
+        <v>777</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
       <c r="H57" s="7">
         <v>82</v>
@@ -10023,13 +10182,13 @@
         <v>90892</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>736</v>
+        <v>779</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>737</v>
+        <v>780</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>738</v>
+        <v>781</v>
       </c>
       <c r="M57" s="7">
         <v>171</v>
@@ -10041,7 +10200,7 @@
         <v>50</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>400</v>
@@ -10059,13 +10218,13 @@
         <v>131550</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>740</v>
+        <v>783</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>741</v>
+        <v>784</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>742</v>
+        <v>785</v>
       </c>
       <c r="H58" s="7">
         <v>80</v>
@@ -10074,13 +10233,13 @@
         <v>87269</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>743</v>
+        <v>786</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>744</v>
+        <v>787</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>745</v>
+        <v>788</v>
       </c>
       <c r="M58" s="7">
         <v>204</v>
@@ -10089,13 +10248,13 @@
         <v>218819</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>746</v>
+        <v>789</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>747</v>
+        <v>790</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>748</v>
+        <v>791</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -10163,13 +10322,13 @@
         <v>77733</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>749</v>
+        <v>792</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>750</v>
+        <v>793</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>751</v>
+        <v>794</v>
       </c>
       <c r="H60" s="7">
         <v>60</v>
@@ -10178,13 +10337,13 @@
         <v>66505</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>752</v>
+        <v>795</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>753</v>
+        <v>796</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>754</v>
+        <v>797</v>
       </c>
       <c r="M60" s="7">
         <v>129</v>
@@ -10196,7 +10355,7 @@
         <v>197</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>755</v>
+        <v>798</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>408</v>
@@ -10214,13 +10373,13 @@
         <v>332857</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>756</v>
+        <v>799</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>757</v>
+        <v>800</v>
       </c>
       <c r="H61" s="7">
         <v>137</v>
@@ -10229,13 +10388,13 @@
         <v>149623</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>758</v>
+        <v>801</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>759</v>
+        <v>802</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>760</v>
+        <v>803</v>
       </c>
       <c r="M61" s="7">
         <v>443</v>
@@ -10244,13 +10403,13 @@
         <v>482480</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>762</v>
+        <v>805</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>763</v>
+        <v>806</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -10268,7 +10427,7 @@
         <v>126</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>764</v>
+        <v>807</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>150</v>
@@ -10283,10 +10442,10 @@
         <v>291</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>765</v>
+        <v>808</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="M62" s="7">
         <v>50</v>
@@ -10298,10 +10457,10 @@
         <v>284</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>766</v>
+        <v>809</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -10316,7 +10475,7 @@
         <v>28138</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>559</v>
+        <v>811</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>288</v>
@@ -10331,13 +10490,13 @@
         <v>68213</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>768</v>
+        <v>812</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>769</v>
+        <v>813</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>770</v>
+        <v>814</v>
       </c>
       <c r="M63" s="7">
         <v>88</v>
@@ -10346,13 +10505,13 @@
         <v>96351</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>771</v>
+        <v>815</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>772</v>
+        <v>816</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>773</v>
+        <v>817</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -10367,13 +10526,13 @@
         <v>373546</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>774</v>
+        <v>818</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>775</v>
+        <v>819</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>776</v>
+        <v>820</v>
       </c>
       <c r="H64" s="7">
         <v>321</v>
@@ -10382,13 +10541,13 @@
         <v>347228</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>777</v>
+        <v>821</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>778</v>
+        <v>822</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>779</v>
+        <v>823</v>
       </c>
       <c r="M64" s="7">
         <v>676</v>
@@ -10397,13 +10556,13 @@
         <v>720775</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>780</v>
+        <v>824</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>781</v>
+        <v>825</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>782</v>
+        <v>826</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -10418,13 +10577,13 @@
         <v>533788</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>783</v>
+        <v>827</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>784</v>
+        <v>828</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>785</v>
+        <v>829</v>
       </c>
       <c r="H65" s="7">
         <v>277</v>
@@ -10433,13 +10592,13 @@
         <v>296507</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>786</v>
+        <v>830</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>787</v>
+        <v>831</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>788</v>
+        <v>832</v>
       </c>
       <c r="M65" s="7">
         <v>787</v>
@@ -10448,13 +10607,13 @@
         <v>830296</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>789</v>
+        <v>833</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>790</v>
+        <v>834</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>791</v>
+        <v>835</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -10534,7 +10693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FD1FE0-9048-4706-B889-CBBCE4DB7C1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD41FFB-BC51-423D-A0F5-36E74439D052}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10551,7 +10710,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>792</v>
+        <v>836</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10658,13 +10817,13 @@
         <v>29120</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>793</v>
+        <v>837</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>794</v>
+        <v>838</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>795</v>
+        <v>839</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -10673,13 +10832,13 @@
         <v>30342</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>796</v>
+        <v>840</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>274</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>797</v>
+        <v>841</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -10688,13 +10847,13 @@
         <v>59461</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>798</v>
+        <v>842</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>635</v>
+        <v>680</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>799</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10709,13 +10868,13 @@
         <v>17224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>800</v>
+        <v>844</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>801</v>
+        <v>845</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>802</v>
+        <v>846</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -10724,13 +10883,13 @@
         <v>19825</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>803</v>
+        <v>847</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>804</v>
+        <v>848</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>776</v>
+        <v>820</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -10739,13 +10898,13 @@
         <v>37049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>805</v>
+        <v>849</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>806</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10760,13 +10919,13 @@
         <v>3933</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>807</v>
+        <v>851</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>808</v>
+        <v>852</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>809</v>
+        <v>853</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -10793,10 +10952,10 @@
         <v>239</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>810</v>
+        <v>854</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>811</v>
+        <v>855</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10817,7 +10976,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -10826,13 +10985,13 @@
         <v>2793</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>812</v>
+        <v>856</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>808</v>
+        <v>852</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>813</v>
+        <v>857</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -10847,7 +11006,7 @@
         <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10859,16 +11018,16 @@
         <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>30809</v>
+        <v>30808</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>814</v>
+        <v>858</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>378</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>815</v>
+        <v>859</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -10877,13 +11036,13 @@
         <v>24354</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>816</v>
+        <v>860</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>817</v>
+        <v>861</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>585</v>
+        <v>862</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -10892,13 +11051,13 @@
         <v>55163</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>818</v>
+        <v>863</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>819</v>
+        <v>864</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>820</v>
+        <v>865</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10913,10 +11072,10 @@
         <v>50404</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>821</v>
+        <v>866</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>822</v>
+        <v>867</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>396</v>
@@ -10928,13 +11087,13 @@
         <v>20868</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>823</v>
+        <v>868</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>824</v>
+        <v>869</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>825</v>
+        <v>870</v>
       </c>
       <c r="M9" s="7">
         <v>66</v>
@@ -10943,13 +11102,13 @@
         <v>71272</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>826</v>
+        <v>871</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>827</v>
+        <v>872</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>791</v>
+        <v>835</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10961,7 +11120,7 @@
         <v>116</v>
       </c>
       <c r="D10" s="7">
-        <v>131490</v>
+        <v>131489</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>67</v>
@@ -11017,13 +11176,13 @@
         <v>13142</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>828</v>
+        <v>873</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>709</v>
+        <v>752</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>829</v>
+        <v>874</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -11032,13 +11191,13 @@
         <v>11035</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>730</v>
+        <v>773</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>830</v>
+        <v>875</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -11050,10 +11209,10 @@
         <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>831</v>
+        <v>876</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>832</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11068,13 +11227,13 @@
         <v>47934</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>833</v>
+        <v>878</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>834</v>
+        <v>879</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>835</v>
+        <v>880</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -11083,13 +11242,13 @@
         <v>31227</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>620</v>
+        <v>665</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>836</v>
+        <v>881</v>
       </c>
       <c r="M12" s="7">
         <v>75</v>
@@ -11098,13 +11257,13 @@
         <v>79161</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>837</v>
+        <v>882</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>838</v>
+        <v>883</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>839</v>
+        <v>884</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11119,13 +11278,13 @@
         <v>2122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>840</v>
+        <v>885</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>841</v>
+        <v>886</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -11140,7 +11299,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>842</v>
+        <v>887</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -11176,7 +11335,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>843</v>
+        <v>888</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -11185,13 +11344,13 @@
         <v>9083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>844</v>
+        <v>889</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>845</v>
+        <v>890</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -11200,13 +11359,13 @@
         <v>11116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>846</v>
+        <v>891</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>847</v>
+        <v>892</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>848</v>
+        <v>893</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11221,13 +11380,13 @@
         <v>26955</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>758</v>
+        <v>801</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>849</v>
+        <v>894</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>850</v>
+        <v>895</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
@@ -11236,13 +11395,13 @@
         <v>22502</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>851</v>
+        <v>896</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>852</v>
+        <v>897</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>660</v>
+        <v>705</v>
       </c>
       <c r="M15" s="7">
         <v>48</v>
@@ -11251,13 +11410,13 @@
         <v>49457</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>853</v>
+        <v>898</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>854</v>
+        <v>591</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>850</v>
+        <v>895</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11272,13 +11431,13 @@
         <v>77095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>855</v>
+        <v>899</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>791</v>
+        <v>835</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>856</v>
+        <v>900</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -11287,13 +11446,13 @@
         <v>38745</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>857</v>
+        <v>901</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>858</v>
+        <v>902</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>859</v>
+        <v>903</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -11302,13 +11461,13 @@
         <v>115840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>860</v>
+        <v>904</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>861</v>
+        <v>905</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>862</v>
+        <v>906</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11382,7 +11541,7 @@
         <v>36</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>592</v>
+        <v>639</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -11391,13 +11550,13 @@
         <v>4772</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>863</v>
+        <v>907</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>864</v>
+        <v>908</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -11409,10 +11568,10 @@
         <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>865</v>
+        <v>909</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>866</v>
+        <v>910</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11427,13 +11586,13 @@
         <v>27234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>867</v>
+        <v>911</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>868</v>
+        <v>912</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>869</v>
+        <v>913</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -11442,13 +11601,13 @@
         <v>8611</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>870</v>
+        <v>914</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>871</v>
+        <v>915</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>872</v>
+        <v>916</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -11457,10 +11616,10 @@
         <v>35844</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>873</v>
+        <v>917</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>874</v>
+        <v>918</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>86</v>
@@ -11484,7 +11643,7 @@
         <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>524</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -11508,13 +11667,13 @@
         <v>2595</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>840</v>
+        <v>885</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>875</v>
+        <v>919</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11529,13 +11688,13 @@
         <v>2734</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>876</v>
+        <v>920</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>382</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>639</v>
+        <v>684</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -11550,7 +11709,7 @@
         <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>877</v>
+        <v>921</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -11562,10 +11721,10 @@
         <v>287</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>878</v>
+        <v>455</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>879</v>
+        <v>922</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11580,10 +11739,10 @@
         <v>34500</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>880</v>
+        <v>923</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>881</v>
+        <v>924</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>206</v>
@@ -11595,13 +11754,13 @@
         <v>35226</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>882</v>
+        <v>925</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>883</v>
+        <v>926</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>884</v>
+        <v>927</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -11610,13 +11769,13 @@
         <v>69726</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>885</v>
+        <v>928</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>886</v>
+        <v>929</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>887</v>
+        <v>930</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11631,13 +11790,13 @@
         <v>52287</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>888</v>
+        <v>931</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>889</v>
+        <v>932</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>890</v>
+        <v>933</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -11646,13 +11805,13 @@
         <v>29349</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>891</v>
+        <v>934</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>892</v>
+        <v>935</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>893</v>
+        <v>936</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -11661,13 +11820,13 @@
         <v>81637</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>894</v>
+        <v>937</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>580</v>
+        <v>938</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>895</v>
+        <v>939</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11735,13 +11894,13 @@
         <v>19383</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>896</v>
+        <v>940</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>897</v>
+        <v>941</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>898</v>
+        <v>942</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -11750,13 +11909,13 @@
         <v>12354</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>899</v>
+        <v>943</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>900</v>
+        <v>944</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>901</v>
+        <v>624</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -11765,13 +11924,13 @@
         <v>31738</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>902</v>
+        <v>945</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>903</v>
+        <v>946</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>904</v>
+        <v>947</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11786,13 +11945,13 @@
         <v>29356</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>905</v>
+        <v>948</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>906</v>
+        <v>949</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>907</v>
+        <v>950</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -11801,13 +11960,13 @@
         <v>14465</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>908</v>
+        <v>951</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>909</v>
+        <v>952</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>910</v>
+        <v>953</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -11816,13 +11975,13 @@
         <v>43821</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>853</v>
+        <v>898</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>911</v>
+        <v>954</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11837,13 +11996,13 @@
         <v>1991</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>912</v>
+        <v>955</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -11858,7 +12017,7 @@
         <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -11867,13 +12026,13 @@
         <v>1991</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>913</v>
+        <v>956</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>914</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -11888,13 +12047,13 @@
         <v>1019</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>915</v>
+        <v>957</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>916</v>
+        <v>958</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -11903,13 +12062,13 @@
         <v>9328</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>917</v>
+        <v>959</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>918</v>
+        <v>960</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>919</v>
+        <v>961</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -11918,13 +12077,13 @@
         <v>10346</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>272</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>921</v>
+        <v>963</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11939,13 +12098,13 @@
         <v>28731</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>922</v>
+        <v>964</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>923</v>
+        <v>965</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>924</v>
+        <v>966</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -11954,13 +12113,13 @@
         <v>35257</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>925</v>
+        <v>967</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>926</v>
+        <v>968</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="M29" s="7">
         <v>60</v>
@@ -11969,13 +12128,13 @@
         <v>63988</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>928</v>
+        <v>970</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>929</v>
+        <v>604</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>930</v>
+        <v>971</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11990,13 +12149,13 @@
         <v>29677</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>931</v>
+        <v>972</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>932</v>
+        <v>973</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -12005,13 +12164,13 @@
         <v>9556</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>933</v>
+        <v>974</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>934</v>
+        <v>975</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>935</v>
+        <v>599</v>
       </c>
       <c r="M30" s="7">
         <v>38</v>
@@ -12020,13 +12179,13 @@
         <v>39233</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>936</v>
+        <v>976</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>937</v>
+        <v>977</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12094,13 +12253,13 @@
         <v>9175</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>938</v>
+        <v>978</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>939</v>
+        <v>979</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>940</v>
+        <v>980</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -12109,13 +12268,13 @@
         <v>11002</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>941</v>
+        <v>981</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>942</v>
+        <v>982</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>943</v>
+        <v>983</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -12124,13 +12283,13 @@
         <v>20178</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>944</v>
+        <v>984</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>945</v>
+        <v>985</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>946</v>
+        <v>986</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12145,13 +12304,13 @@
         <v>6501</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>947</v>
+        <v>987</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>948</v>
+        <v>988</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>949</v>
+        <v>989</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -12160,13 +12319,13 @@
         <v>4708</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>950</v>
+        <v>990</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>951</v>
+        <v>991</v>
       </c>
       <c r="M33" s="7">
         <v>11</v>
@@ -12178,10 +12337,10 @@
         <v>227</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>952</v>
+        <v>992</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>953</v>
+        <v>993</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -12196,13 +12355,13 @@
         <v>1267</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>878</v>
+        <v>455</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>954</v>
+        <v>994</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -12217,7 +12376,7 @@
         <v>35</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>955</v>
+        <v>995</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -12226,13 +12385,13 @@
         <v>1267</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>956</v>
+        <v>996</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>957</v>
+        <v>997</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12253,7 +12412,7 @@
         <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>958</v>
+        <v>998</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -12268,7 +12427,7 @@
         <v>34</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>959</v>
+        <v>999</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -12298,13 +12457,13 @@
         <v>37245</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>961</v>
+        <v>1001</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>962</v>
+        <v>1002</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -12313,13 +12472,13 @@
         <v>22967</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>963</v>
+        <v>1003</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>964</v>
+        <v>1004</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>965</v>
+        <v>1005</v>
       </c>
       <c r="M36" s="7">
         <v>60</v>
@@ -12328,13 +12487,13 @@
         <v>60213</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>966</v>
+        <v>1006</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>967</v>
+        <v>1007</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>968</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12349,13 +12508,13 @@
         <v>17549</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>969</v>
+        <v>1009</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>970</v>
+        <v>1010</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>971</v>
+        <v>1011</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -12364,13 +12523,13 @@
         <v>7365</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>972</v>
+        <v>1012</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>973</v>
+        <v>1013</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>974</v>
+        <v>1014</v>
       </c>
       <c r="M37" s="7">
         <v>26</v>
@@ -12379,13 +12538,13 @@
         <v>24914</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>975</v>
+        <v>1015</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>976</v>
+        <v>1016</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>977</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12456,10 +12615,10 @@
         <v>194</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>978</v>
+        <v>1018</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>979</v>
+        <v>1019</v>
       </c>
       <c r="H39" s="7">
         <v>6</v>
@@ -12468,13 +12627,13 @@
         <v>5946</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>981</v>
+        <v>1021</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>982</v>
+        <v>1022</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -12483,13 +12642,13 @@
         <v>10870</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>367</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>983</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -12504,13 +12663,13 @@
         <v>15744</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>984</v>
+        <v>1024</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>985</v>
+        <v>1025</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>986</v>
+        <v>1026</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -12519,13 +12678,13 @@
         <v>6572</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>987</v>
+        <v>1027</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>988</v>
+        <v>1028</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>989</v>
+        <v>1029</v>
       </c>
       <c r="M40" s="7">
         <v>21</v>
@@ -12534,13 +12693,13 @@
         <v>22317</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>990</v>
+        <v>1030</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>991</v>
+        <v>1031</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>992</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12555,13 +12714,13 @@
         <v>1833</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>559</v>
+        <v>811</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>993</v>
+        <v>1033</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -12576,7 +12735,7 @@
         <v>35</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>807</v>
+        <v>851</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -12591,7 +12750,7 @@
         <v>34</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>994</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12606,13 +12765,13 @@
         <v>932</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>995</v>
+        <v>1035</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>996</v>
+        <v>1036</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -12621,13 +12780,13 @@
         <v>1025</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>997</v>
+        <v>1037</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>998</v>
+        <v>1038</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -12636,13 +12795,13 @@
         <v>1957</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>999</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12657,13 +12816,13 @@
         <v>31260</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1000</v>
+        <v>1040</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>1001</v>
+        <v>1041</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>1002</v>
+        <v>1042</v>
       </c>
       <c r="H43" s="7">
         <v>17</v>
@@ -12672,13 +12831,13 @@
         <v>16866</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>1003</v>
+        <v>1043</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>1004</v>
+        <v>1044</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>1005</v>
+        <v>1045</v>
       </c>
       <c r="M43" s="7">
         <v>46</v>
@@ -12687,13 +12846,13 @@
         <v>48127</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>1006</v>
+        <v>1046</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>138</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>1007</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12708,13 +12867,13 @@
         <v>36222</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1008</v>
+        <v>1048</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>159</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>1009</v>
+        <v>1049</v>
       </c>
       <c r="H44" s="7">
         <v>32</v>
@@ -12723,13 +12882,13 @@
         <v>31904</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>1010</v>
+        <v>1050</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>1011</v>
+        <v>1051</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>1012</v>
+        <v>1052</v>
       </c>
       <c r="M44" s="7">
         <v>67</v>
@@ -12738,13 +12897,13 @@
         <v>68126</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>1013</v>
+        <v>1053</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>1014</v>
+        <v>1054</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>1015</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12812,13 +12971,13 @@
         <v>38805</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1016</v>
+        <v>1056</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>1017</v>
+        <v>592</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>1018</v>
+        <v>1057</v>
       </c>
       <c r="H46" s="7">
         <v>21</v>
@@ -12827,13 +12986,13 @@
         <v>22556</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>1019</v>
+        <v>1058</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>407</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>1020</v>
+        <v>1059</v>
       </c>
       <c r="M46" s="7">
         <v>52</v>
@@ -12842,13 +13001,13 @@
         <v>61361</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>985</v>
+        <v>1025</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>1021</v>
+        <v>1060</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>1022</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12863,13 +13022,13 @@
         <v>64816</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1023</v>
+        <v>1062</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>1024</v>
+        <v>1063</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>1025</v>
+        <v>1064</v>
       </c>
       <c r="H47" s="7">
         <v>45</v>
@@ -12878,13 +13037,13 @@
         <v>45241</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>1026</v>
+        <v>1065</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>674</v>
+        <v>718</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>1027</v>
+        <v>1066</v>
       </c>
       <c r="M47" s="7">
         <v>102</v>
@@ -12896,10 +13055,10 @@
         <v>328</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>1028</v>
+        <v>1067</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>610</v>
+        <v>656</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12914,13 +13073,13 @@
         <v>8392</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1029</v>
+        <v>1068</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>1030</v>
+        <v>1069</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1031</v>
+        <v>1070</v>
       </c>
       <c r="H48" s="7">
         <v>4</v>
@@ -12929,13 +13088,13 @@
         <v>4104</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>1032</v>
+        <v>1071</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="M48" s="7">
         <v>11</v>
@@ -12950,7 +13109,7 @@
         <v>146</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>875</v>
+        <v>919</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -12965,13 +13124,13 @@
         <v>18289</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1033</v>
+        <v>1072</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>1034</v>
+        <v>1073</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>1035</v>
+        <v>1074</v>
       </c>
       <c r="H49" s="7">
         <v>32</v>
@@ -12980,13 +13139,13 @@
         <v>34589</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>1036</v>
+        <v>1075</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>474</v>
+        <v>521</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>1037</v>
+        <v>1076</v>
       </c>
       <c r="M49" s="7">
         <v>49</v>
@@ -12995,13 +13154,13 @@
         <v>52879</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>1038</v>
+        <v>1077</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>1039</v>
+        <v>1078</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>1040</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13016,13 +13175,13 @@
         <v>104681</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>1041</v>
+        <v>1080</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>1042</v>
+        <v>1081</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>1043</v>
+        <v>1082</v>
       </c>
       <c r="H50" s="7">
         <v>99</v>
@@ -13034,10 +13193,10 @@
         <v>59</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>1044</v>
+        <v>1083</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>1045</v>
+        <v>1084</v>
       </c>
       <c r="M50" s="7">
         <v>190</v>
@@ -13046,13 +13205,13 @@
         <v>207579</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>1046</v>
+        <v>1085</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>1047</v>
+        <v>1086</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>1048</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13070,10 +13229,10 @@
         <v>155</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>1049</v>
+        <v>1088</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>1050</v>
+        <v>1089</v>
       </c>
       <c r="H51" s="7">
         <v>70</v>
@@ -13082,13 +13241,13 @@
         <v>72538</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>1051</v>
+        <v>1090</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>1052</v>
+        <v>1091</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="M51" s="7">
         <v>170</v>
@@ -13097,13 +13256,13 @@
         <v>186673</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>1053</v>
+        <v>1092</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>1054</v>
+        <v>1093</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>1055</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -13171,13 +13330,13 @@
         <v>27092</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>1056</v>
+        <v>1095</v>
       </c>
       <c r="H53" s="7">
         <v>21</v>
@@ -13186,13 +13345,13 @@
         <v>21675</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>1057</v>
+        <v>1096</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>993</v>
+        <v>1033</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>717</v>
+        <v>759</v>
       </c>
       <c r="M53" s="7">
         <v>46</v>
@@ -13201,13 +13360,13 @@
         <v>48767</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>1058</v>
+        <v>1097</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>1059</v>
+        <v>1098</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>1060</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13222,13 +13381,13 @@
         <v>43196</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>1061</v>
+        <v>1100</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>1062</v>
+        <v>1101</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>1063</v>
+        <v>1102</v>
       </c>
       <c r="H54" s="7">
         <v>30</v>
@@ -13237,13 +13396,13 @@
         <v>30927</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>1064</v>
+        <v>1103</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>1065</v>
+        <v>1104</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>1066</v>
+        <v>1105</v>
       </c>
       <c r="M54" s="7">
         <v>71</v>
@@ -13252,13 +13411,13 @@
         <v>74123</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>1068</v>
+        <v>1107</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>1069</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13276,7 +13435,7 @@
         <v>94</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>1070</v>
+        <v>1109</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>124</v>
@@ -13288,13 +13447,13 @@
         <v>3152</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>1071</v>
+        <v>1110</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>1072</v>
+        <v>1111</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>1073</v>
+        <v>1112</v>
       </c>
       <c r="M55" s="7">
         <v>7</v>
@@ -13303,13 +13462,13 @@
         <v>7015</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>1074</v>
+        <v>1113</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>335</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>1075</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13324,13 +13483,13 @@
         <v>5995</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1076</v>
+        <v>1115</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>765</v>
+        <v>808</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1077</v>
+        <v>1116</v>
       </c>
       <c r="H56" s="7">
         <v>11</v>
@@ -13357,10 +13516,10 @@
         <v>331</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>1078</v>
+        <v>1117</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>1079</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13375,13 +13534,13 @@
         <v>87012</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>787</v>
+        <v>831</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>558</v>
+        <v>1119</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="H57" s="7">
         <v>70</v>
@@ -13393,10 +13552,10 @@
         <v>120</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>774</v>
+        <v>818</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>1081</v>
+        <v>1121</v>
       </c>
       <c r="M57" s="7">
         <v>154</v>
@@ -13405,13 +13564,13 @@
         <v>159789</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>1082</v>
+        <v>1122</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>1083</v>
+        <v>1123</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>1084</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -13426,13 +13585,13 @@
         <v>137211</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>1085</v>
+        <v>1125</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>1086</v>
+        <v>1126</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>1087</v>
+        <v>1127</v>
       </c>
       <c r="H58" s="7">
         <v>80</v>
@@ -13441,13 +13600,13 @@
         <v>84048</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>1088</v>
+        <v>1128</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>1089</v>
+        <v>1129</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>500</v>
+        <v>547</v>
       </c>
       <c r="M58" s="7">
         <v>211</v>
@@ -13456,13 +13615,13 @@
         <v>221259</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>1090</v>
+        <v>1130</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>1091</v>
+        <v>1131</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>1092</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -13530,13 +13689,13 @@
         <v>147085</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>1093</v>
+        <v>1133</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>1094</v>
+        <v>1134</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>1095</v>
+        <v>1135</v>
       </c>
       <c r="H60" s="7">
         <v>114</v>
@@ -13545,13 +13704,13 @@
         <v>119682</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>1060</v>
+        <v>1099</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>950</v>
+        <v>990</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>794</v>
+        <v>838</v>
       </c>
       <c r="M60" s="7">
         <v>242</v>
@@ -13560,13 +13719,13 @@
         <v>266767</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>1096</v>
+        <v>1136</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>1097</v>
+        <v>1137</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>1098</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -13581,13 +13740,13 @@
         <v>252006</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>1099</v>
+        <v>1138</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>1100</v>
+        <v>1139</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>1101</v>
+        <v>1140</v>
       </c>
       <c r="H61" s="7">
         <v>158</v>
@@ -13596,13 +13755,13 @@
         <v>161577</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>1102</v>
+        <v>1141</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>1103</v>
+        <v>1142</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>1104</v>
+        <v>1143</v>
       </c>
       <c r="M61" s="7">
         <v>391</v>
@@ -13611,13 +13770,13 @@
         <v>413583</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>1105</v>
+        <v>1144</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>805</v>
+        <v>849</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>465</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -13632,13 +13791,13 @@
         <v>25997</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>1106</v>
+        <v>1145</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>1107</v>
+        <v>1146</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>1108</v>
+        <v>1147</v>
       </c>
       <c r="H62" s="7">
         <v>7</v>
@@ -13650,7 +13809,7 @@
         <v>195</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>1109</v>
+        <v>1148</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>430</v>
@@ -13665,10 +13824,10 @@
         <v>430</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>1110</v>
+        <v>1149</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>1111</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -13686,10 +13845,10 @@
         <v>428</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>1112</v>
+        <v>1151</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>729</v>
+        <v>772</v>
       </c>
       <c r="H63" s="7">
         <v>71</v>
@@ -13698,13 +13857,13 @@
         <v>73983</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>1113</v>
+        <v>1152</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>1114</v>
+        <v>1153</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>687</v>
+        <v>731</v>
       </c>
       <c r="M63" s="7">
         <v>100</v>
@@ -13713,13 +13872,13 @@
         <v>104985</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>1115</v>
+        <v>1154</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>843</v>
+        <v>888</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>663</v>
+        <v>708</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -13734,13 +13893,13 @@
         <v>381193</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>1116</v>
+        <v>1155</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>1117</v>
+        <v>1156</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>1118</v>
+        <v>1157</v>
       </c>
       <c r="H64" s="7">
         <v>326</v>
@@ -13749,13 +13908,13 @@
         <v>332848</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>1119</v>
+        <v>1158</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>1120</v>
+        <v>1159</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>1048</v>
+        <v>1087</v>
       </c>
       <c r="M64" s="7">
         <v>683</v>
@@ -13764,13 +13923,13 @@
         <v>714041</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>1121</v>
+        <v>1160</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>442</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>1122</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -13785,13 +13944,13 @@
         <v>514582</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>1123</v>
+        <v>1162</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>1124</v>
+        <v>1163</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>748</v>
+        <v>791</v>
       </c>
       <c r="H65" s="7">
         <v>289</v>
@@ -13800,13 +13959,13 @@
         <v>294373</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>1125</v>
+        <v>1164</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>1126</v>
+        <v>1165</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>1127</v>
+        <v>1166</v>
       </c>
       <c r="M65" s="7">
         <v>772</v>
@@ -13815,13 +13974,13 @@
         <v>808955</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>1128</v>
+        <v>1167</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>1129</v>
+        <v>1168</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>1130</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
